--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1347,10 +1359,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1394,28 +1406,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1440,28 +1452,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2013,10 +2025,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2060,28 +2072,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2106,28 +2118,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2679,10 +2691,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2726,28 +2738,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2772,28 +2784,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3142,10 +3154,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="J104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3189,28 +3201,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3235,28 +3247,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3547,10 +3559,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
+      <c r="J118" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3594,28 +3606,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3640,28 +3652,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3923,10 +3935,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="J131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
